--- a/Gestion Stock 2026/BRH 2026/Fiche de Stock Global 2026.xlsx
+++ b/Gestion Stock 2026/BRH 2026/Fiche de Stock Global 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\BRH 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F3A7E-AD97-48D8-8812-BCE55113AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB863D-AFE3-4541-96B5-B2C6B6FE0F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -161,6 +161,9 @@
       </rPr>
       <t>2026</t>
     </r>
+  </si>
+  <si>
+    <t>10 Compteurs DN 15/21 Destination Centre Beni Slimane</t>
   </si>
 </sst>
 </file>
@@ -1081,28 +1084,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,64 +1164,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,10 +1621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,58 +1634,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -1699,61 +1702,61 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="83" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1787,7 @@
       <c r="K8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="84"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
@@ -1865,13 +1868,15 @@
       <c r="A12" s="47">
         <v>4</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="40">
+        <v>7</v>
+      </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="38"/>
@@ -1883,20 +1888,22 @@
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>5</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="40">
+        <v>6</v>
+      </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1908,7 +1915,7 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1940,13 +1947,15 @@
       <c r="A15" s="47">
         <v>7</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="40">
+        <v>2</v>
+      </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="39"/>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
@@ -1958,20 +1967,22 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>8</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="40">
+        <v>2</v>
+      </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -1983,7 +1994,7 @@
       </c>
       <c r="L16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2040,13 +2051,15 @@
       <c r="A19" s="47">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="40">
+        <v>4</v>
+      </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="38"/>
@@ -2058,7 +2071,7 @@
       </c>
       <c r="L19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2090,13 +2103,15 @@
       <c r="A21" s="47">
         <v>13</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="40">
+        <v>5</v>
+      </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="41"/>
@@ -2108,7 +2123,7 @@
       </c>
       <c r="L21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2116,14 +2131,14 @@
         <v>14</v>
       </c>
       <c r="B22" s="40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="37"/>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="14"/>
@@ -2135,7 +2150,7 @@
       </c>
       <c r="L22" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2150,19 +2165,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="19">
-        <v>3</v>
-      </c>
+      <c r="G23" s="19"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2219,13 +2232,15 @@
       <c r="A26" s="47">
         <v>18</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="40">
+        <v>18</v>
+      </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="37"/>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="53"/>
@@ -2237,20 +2252,22 @@
       </c>
       <c r="L26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <v>19</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="40">
+        <v>2</v>
+      </c>
       <c r="C27" s="42"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37"/>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="14"/>
@@ -2262,7 +2279,7 @@
       </c>
       <c r="L27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2270,14 +2287,14 @@
         <v>20</v>
       </c>
       <c r="B28" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="37"/>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="14"/>
@@ -2289,47 +2306,49 @@
       </c>
       <c r="L28" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>21</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="40">
+        <v>3</v>
+      </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="37"/>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G29" s="19"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>22</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="40">
+        <v>8</v>
+      </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37"/>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="14"/>
@@ -2341,7 +2360,7 @@
       </c>
       <c r="L30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2356,19 +2375,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
+      <c r="G31" s="19"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2400,13 +2417,15 @@
       <c r="A33" s="47">
         <v>25</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="40">
+        <v>2</v>
+      </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="37"/>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="14"/>
@@ -2418,7 +2437,7 @@
       </c>
       <c r="L33" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2426,14 +2445,14 @@
         <v>26</v>
       </c>
       <c r="B34" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="36"/>
       <c r="E34" s="37"/>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="38"/>
@@ -2445,20 +2464,22 @@
       </c>
       <c r="L34" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47">
         <v>27</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="44">
+        <v>3</v>
+      </c>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="37"/>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="38"/>
@@ -2470,32 +2491,36 @@
       </c>
       <c r="L35" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47">
         <v>28</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="44">
+        <v>5</v>
+      </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="G36" s="19">
+        <v>18</v>
+      </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2510,17 +2535,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="19"/>
+      <c r="G37" s="19">
+        <v>17</v>
+      </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2577,7 +2604,7 @@
       <c r="A40" s="48"/>
       <c r="B40" s="52">
         <f>SUM(B9:B39)</f>
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C40" s="52">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -2593,11 +2620,11 @@
       </c>
       <c r="F40" s="51">
         <f>SUM(F9:F39)</f>
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="G40" s="12">
         <f>SUM(G9:G39)</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H40" s="12">
         <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
@@ -2613,11 +2640,11 @@
       </c>
       <c r="K40" s="12">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L40" s="12">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2635,149 +2662,149 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69" t="s">
+      <c r="H42" s="67"/>
+      <c r="I42" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="70"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="7"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="65">
-        <v>0</v>
-      </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71">
+        <v>447</v>
+      </c>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="74"/>
       <c r="K43" s="7"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="58">
-        <v>100</v>
-      </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="57"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="75">
+        <v>0</v>
+      </c>
+      <c r="H44" s="76"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="76"/>
       <c r="K44" s="7"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="63">
-        <v>0</v>
-      </c>
-      <c r="H45" s="64"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="78">
+        <v>0</v>
+      </c>
+      <c r="H45" s="79"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="7"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56">
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="81">
         <f>L40+G45</f>
-        <v>13</v>
-      </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="57"/>
+        <v>116</v>
+      </c>
+      <c r="H46" s="76"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="76"/>
       <c r="K46" s="7"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56">
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="81">
         <f>G43+G44-G46</f>
-        <v>87</v>
-      </c>
-      <c r="H47" s="57"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="57"/>
+        <v>331</v>
+      </c>
+      <c r="H47" s="76"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="76"/>
       <c r="K47" s="7"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56">
-        <v>87</v>
-      </c>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="57"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="81">
+        <v>321</v>
+      </c>
+      <c r="H48" s="76"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="76"/>
       <c r="K48" s="7"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="59">
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="82">
         <f>G47-G48</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="60"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="60"/>
+        <v>10</v>
+      </c>
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="83"/>
       <c r="K49" s="7"/>
       <c r="L49" s="2"/>
     </row>
@@ -2801,44 +2828,49 @@
     </row>
     <row r="51" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
